--- a/secteur-action-publique/education/departements/barometre-resultats-education-departements-synthese.xlsx
+++ b/secteur-action-publique/education/departements/barometre-resultats-education-departements-synthese.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13248" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13140" uniqueCount="797">
   <si>
     <t>mesure</t>
   </si>
@@ -6228,7 +6228,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6283,13 +6283,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>263</v>
@@ -6298,28 +6298,31 @@
         <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -6327,13 +6330,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>263</v>
@@ -6342,39 +6345,45 @@
         <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>244</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="M3" t="s">
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>263</v>
@@ -6383,25 +6392,25 @@
         <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="M4" t="s">
         <v>117</v>
@@ -6410,18 +6419,18 @@
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>263</v>
@@ -6430,45 +6439,45 @@
         <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="L5" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>263</v>
@@ -6477,45 +6486,45 @@
         <v>264</v>
       </c>
       <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
-      </c>
       <c r="L6" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>263</v>
@@ -6524,118 +6533,24 @@
         <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>267</v>
-      </c>
-      <c r="O9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -19811,7 +19726,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19866,13 +19781,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>450</v>
@@ -19881,28 +19796,31 @@
         <v>451</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>204</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -19910,13 +19828,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>450</v>
@@ -19925,39 +19843,45 @@
         <v>451</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>112</v>
+      </c>
+      <c r="K3" t="s">
+        <v>238</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>450</v>
@@ -19966,45 +19890,45 @@
         <v>451</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>450</v>
@@ -20013,45 +19937,45 @@
         <v>451</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>450</v>
@@ -20060,45 +19984,45 @@
         <v>451</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>450</v>
@@ -20107,118 +20031,24 @@
         <v>451</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>452</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>443</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>453</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E8" t="s">
-        <v>451</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>450</v>
-      </c>
-      <c r="E9" t="s">
-        <v>451</v>
-      </c>
-      <c r="F9" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" t="s">
-        <v>443</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>453</v>
-      </c>
-      <c r="K9" t="s">
-        <v>319</v>
-      </c>
-      <c r="O9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -21080,7 +20910,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21135,13 +20965,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>470</v>
@@ -21150,28 +20980,31 @@
         <v>471</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -21179,13 +21012,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>470</v>
@@ -21194,39 +21027,45 @@
         <v>471</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>470</v>
@@ -21235,45 +21074,45 @@
         <v>471</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>470</v>
@@ -21282,45 +21121,45 @@
         <v>471</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>470</v>
@@ -21329,45 +21168,45 @@
         <v>471</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
-        <v>150</v>
-      </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>470</v>
@@ -21376,118 +21215,24 @@
         <v>471</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>472</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>473</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>474</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>470</v>
-      </c>
-      <c r="E8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>470</v>
-      </c>
-      <c r="E9" t="s">
-        <v>471</v>
-      </c>
-      <c r="F9" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" t="s">
-        <v>473</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>474</v>
-      </c>
-      <c r="K9" t="s">
-        <v>156</v>
-      </c>
-      <c r="O9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -21925,7 +21670,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21980,13 +21725,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>481</v>
@@ -21998,16 +21743,19 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -22016,7 +21764,7 @@
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -22024,13 +21772,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>481</v>
@@ -22039,39 +21787,45 @@
         <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>228</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>481</v>
@@ -22080,45 +21834,45 @@
         <v>482</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
         <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>481</v>
@@ -22127,45 +21881,42 @@
         <v>482</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>481</v>
@@ -22174,45 +21925,45 @@
         <v>482</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>481</v>
@@ -22221,115 +21972,24 @@
         <v>482</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
+        <v>216</v>
+      </c>
+      <c r="K7" t="s">
+        <v>453</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>481</v>
-      </c>
-      <c r="E8" t="s">
-        <v>482</v>
-      </c>
-      <c r="F8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" t="s">
-        <v>231</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>481</v>
-      </c>
-      <c r="E9" t="s">
-        <v>482</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K9" t="s">
-        <v>453</v>
-      </c>
-      <c r="O9" t="s">
         <v>93</v>
       </c>
     </row>
